--- a/input_output/saved_results/kjoreplan.xlsx
+++ b/input_output/saved_results/kjoreplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/saved_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3223EB44-6E8F-044A-87D7-450B807318B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99278D-DD8D-9A4A-AB54-2492145AB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{085C85F7-F954-9640-8BDD-F5C66157C286}"/>
+    <workbookView xWindow="14740" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{085C85F7-F954-9640-8BDD-F5C66157C286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>kjøreplan</t>
   </si>
@@ -106,18 +106,12 @@
     <t>9g 250c f30 x10</t>
   </si>
   <si>
-    <t>kjører nå</t>
-  </si>
-  <si>
     <t>tid per iter</t>
   </si>
   <si>
     <t>tot</t>
   </si>
   <si>
-    <t>kjører på to pcer</t>
-  </si>
-  <si>
     <t>4/10 er like</t>
   </si>
   <si>
@@ -164,6 +158,12 @@
   </si>
   <si>
     <t>ferdig onsdag ettermiddag</t>
+  </si>
+  <si>
+    <t>neste: SAA fix siste: 2 pcer</t>
+  </si>
+  <si>
+    <t>kjører</t>
   </si>
 </sst>
 </file>
@@ -552,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2782C47-FCB3-EC4E-9E27-697F3195AB32}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,22 +563,22 @@
     <col min="2" max="2" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -587,7 +587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -598,13 +598,18 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -626,7 +631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
@@ -641,17 +646,17 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
@@ -662,13 +667,13 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
@@ -691,13 +696,13 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
@@ -720,7 +725,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -751,7 +756,7 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>5</v>
@@ -765,19 +770,21 @@
         <v>5</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
         <v>8</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="N18">
@@ -792,20 +799,17 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -819,14 +823,14 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>8</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -836,37 +840,42 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
       <c r="N21">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
@@ -875,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -887,7 +896,7 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="1">
         <v>30</v>
@@ -911,31 +920,31 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2">
         <v>30</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2">
+        <v>30</v>
+      </c>
+      <c r="E27" s="2">
         <v>7</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -946,7 +955,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -954,7 +963,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>10</v>
@@ -975,7 +984,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -996,37 +1005,37 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
         <v>7</v>
       </c>
-      <c r="H36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
+      <c r="H38" t="s">
         <v>34</v>
       </c>
-      <c r="G37">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39">
         <f>SUMPRODUCT(G10:G33,F10:F33)</f>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F38" t="s">
-        <v>35</v>
-      </c>
-      <c r="G38">
-        <f>G37/3</f>
-        <v>152.66666666666666</v>
-      </c>
-      <c r="H38">
-        <f>G38/24</f>
-        <v>6.3611111111111107</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40">
+        <f>G39/3</f>
+        <v>57</v>
+      </c>
+      <c r="H40">
+        <f>G40/24</f>
+        <v>2.375</v>
       </c>
     </row>
   </sheetData>

--- a/input_output/saved_results/kjoreplan.xlsx
+++ b/input_output/saved_results/kjoreplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/saved_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99278D-DD8D-9A4A-AB54-2492145AB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F8B180-F7C7-9047-BE53-DAB62E9A6A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{085C85F7-F954-9640-8BDD-F5C66157C286}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{085C85F7-F954-9640-8BDD-F5C66157C286}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>kjøreplan</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Heuristic</t>
-  </si>
-  <si>
-    <t>f(x)=GCH +h bevis...</t>
   </si>
   <si>
     <t xml:space="preserve">kjører på to pcer </t>
@@ -554,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2782C47-FCB3-EC4E-9E27-697F3195AB32}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,24 +586,27 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>70</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1" t="s">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -782,9 +782,7 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="N18">
@@ -895,28 +893,28 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>30</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>15</v>
       </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
         <f t="shared" ref="F26:F27" si="1">(C26-D26)*E26</f>
         <v>15</v>
       </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
@@ -940,11 +938,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -983,32 +981,27 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>12</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F39" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1018,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F40" t="s">
         <v>33</v>
       </c>
